--- a/QALD9-Plus-testing/few-shot-entity-aligned/few-shot-wikidata-dbpedia/few_shot_llama_wikidata_results_analysis.xlsx
+++ b/QALD9-Plus-testing/few-shot-entity-aligned/few-shot-wikidata-dbpedia/few_shot_llama_wikidata_results_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\few-shot-entity-aligned\few-shot-wikidata-dbpedia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9992F85E-4D87-4F5E-84AC-12354F6ADEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5F5E8A-C8A5-43C0-B29D-EBD60B16E533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="440">
   <si>
     <t>Question</t>
   </si>
@@ -349,306 +349,6 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?founder WHERE { ?resource rdf:type dbo:Company ; dbo:founder ?founder . FILTER (REGEX(STR(?resource), 'Penguin_Books', 'i')) . FILTER (lang(?founder) = 'en') . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri a dbo:Musical . ?uri dbo:musicBy &lt;http://dbpedia.org/resource/Elton_John&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?uri WHERE { res:Skype dbo:developer ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:SoccerClub ; dbo:category ?category FILTER regex(?category, 'Bundesliga') }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?actor WHERE { ?movie dbo:director res:William_Shatner. ?movie rdf:type dbo:Film. ?movie dbo:actor ?actor. FILTER(!bound(?actor) || ?actor != res:William_Shatner) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Mountain ?uri dbo:elevation ?elevation }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri dbo:starring &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt;. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns# SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; dbo:deathDate ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:starring &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { res:Minecraft dbo:developer ?uri ?uri dbo:Person | dbo:Developer | dbo:VideoGameDeveloper | dbo:VideoGameDesigner }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?val WHERE { res:The_Lego_Movie dbo:budget ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?label WHERE { ?album dbo:releaseDate "1954-03-23" . ?album dbo:recordLabel ?label . ?artist rdf:type dbo:Artist . ?artist dbo:artistName "Elvis Presley" . ?album dbo:artist ?artist . }</t>
-  </si>
-  <si>
-    <t>SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Toy_Story&gt; &lt;http://dbpedia.org/ontology/runtime&gt; ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Occupation . ?uri dbo:instrument res:Trumpet . ?uri rdf:type res:Bandleader . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:director &lt;http://dbpedia.org/resource/Garry_Marshall&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri a dbo:Film . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?year WHERE { &lt;http://dbpedia.org/resource/Rachel_Stevens&gt; dbo:birthYear ?year . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?s dbo:deathCause ?uri } GROUP BY ?uri ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?num WHERE { res:Yokohama_Marine_Tower dbo:height ?num. }</t>
-  </si>
-  <si>
-    <t>PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbpedia:Mountain ; dbpedia:locatedInArea &lt;http://dbpedia.org/resource/Italy&gt; ; dbp:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:doctoralAdvisor res:Albert_Einstein . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/owner&gt; &lt;http://dbpedia.org/resource/Donald_Trump&gt; ; &lt;http://dbpedia.org/ontology/domain&gt; ?domain . FILTER regex(?domain, 'business') }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?o1 WHERE { res:Tom_Cruise dbo:spouse ?o1 }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?val) AS ?c) WHERE { ?uri dbo:populationTotal ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { &lt;http://dbpedia.org/resource/The_Interpretation_of_Dreams&gt; dbo:author ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?date WHERE { res:John_Adams dbo:birthDate ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?population WHERE { res:European_Union dbo:populationTotal ?population . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/China&gt; dbo:currency ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/William_Shakespeare&gt; dbo:deathDate ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Rocket { ?uri dbo:launchSite &lt;http://dbpedia.org/resource/Baikonur_Cosmodrome&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Island ; dbo:partOf res:Japan }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?developer WHERE { res:World_of_Warcraft dbo:developer ?developer }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Company ; dbo:industry res:Advertising . }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . ?uri a dbo:TelevisionShow . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:starring res:Tom_Cruise . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?mountEverest dbo:locatedInArea ?uri . ?uri a dbo:Country . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:John_F._Kennedy dbo:deathPlace ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:crosses &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a &lt;http://dbpedia.org/ontology/Swimmer&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:starring res:Alec_Guinness ; dbo:releaseDate ?releaseDate . } ORDER BY DESC(?releaseDate) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?res WHERE { ?res dbo:mountain ?elevation . FILTER (?elevation &gt; 8848) } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?val WHERE { ?uri dbo:populationTotal ?val . ?uri &lt;http://dbpedia.org/resource/Cairo&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Person. ?uri dbo:birthPlace &lt;http://dbpedia.org/resource/Heraklion&gt;. }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri &lt;http://dbpedia.org/ontology/child&gt; &lt;http://dbpedia.org/resource/Benjamin_Franklin&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?elevationValue WHERE { &lt;http://dbpedia.org/resource/Düsseldorf_Airport&gt; dbo:elevation ?elevationValue . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?country WHERE { ?mecca a dbo:City . ?mecca dbo:country ?country . FILTER (strstarts(str(?mecca), 'http://dbpedia.org/resource/Mecca')). }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?val WHERE { res:Claudia_Schiffer dbo:height ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { res:The_Pillars_of_the_Earth dbo:author ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:genre res:Lou_Reed }</t>
-  </si>
-  <si>
-    <t>SELECT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Frank_Sinatra&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:City ; dbp:populationTotal ?population . } ORDER BY ?population LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:creator res:Walt_Disney . ?uri a dbo:TelevisionShow }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri dbo:Holiday ?holiday . ?holiday dbo:country &lt;http://dbpedia.org/resource/Sweden&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:netIncome ?income . FILTER regex(iri(?uri), 'Apple_Inc') }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Abraham_Lincoln dbo:deathPlace ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Himalayas dbo:country ?country . ?country dbo:capital ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Michael_Jordan&gt; dbo:height ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Clint_Eastwood ; dbo:starring ?movie . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:currency res:West_African_CFA_franc }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/Iraq&gt; dbo:populationTotal ?val }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:category ?category . FILTER (regex(?category, 'Holiday')) . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:PoliticalParty ; dbo:country res:Greece ; dbo:ideology res:Pro-Europeanism . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?date WHERE { ?actor dbo:starring &lt;http://dbpedia.org/resource/Charmed&gt; ; dbo:birthDate ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?movement WHERE { res:The_Three_Dancers dbo:author ?artist . ?artist dbo:movement ?movement . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:genre ?genre . ?genre dbp:country res:Germany . ?uri dbo:birthPlace ?place . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:architect &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/composer&gt; &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:director res:Francis_Ford_Coppola ; a dbo:Film . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE { res:Adele dbo:birthName ?name }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?album dbo:artist ?artist . ?artist rdfs:label "Queen"@en . ?album dbo:releaseDate ?date . FILTER ( ?date = ( GROUP_CONCAT(?date) AS ?dates ) ) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Czech_Republic dbo:currency ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri dbo:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?uri dbo:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Bridge . ?uri dbo:crosses ?crosses . ?crosses dbp:rivers ?rivers . FILTER (CONTAINS(STR(?rivers), 'Seine')) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?musician (COUNT(DISTINCT ?book) AS ?bookCount) WHERE { ?musician dbo:occupation res:Musician . ?book dbo:author ?musician . } GROUP BY ?musician ORDER BY DESC(?bookCount) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:hasCreator res:John_Cleese . ?uri a dbo:TelevisionShow . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri dbo:Writer ?award . ?award dbp:winner ?noble . FILTER(regex(str(?noble), "Nobel Prize in Literature")) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:discoverer &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?res WHERE { ?res dbo:occupation &lt;http://dbpedia.org/resource/Bandleader&gt; . ?res dbo:instrument &lt;http://dbpedia.org/resource/Trumpet&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:BasketballPlayer . ?uri dbo:height ?height . FILTER(?height &gt; "2.00"^^xsd:float) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?f1 dbo:starring res:Julia_Roberts . ?f2 dbo:starring res:Richard_Gere . FILTER(?f1 = ?f2) }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?o1 WHERE { &lt;http://dbpedia.org/resource/Canada&gt; dbo:capital ?o1 . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:SoccerPlayer ?birthPlace . ?birthPlace dbo:country res:Malta . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:capital &lt;http://dbpedia.org/resource/Cameroon&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?count) WHERE { ?uri a dbo:ProgrammingLanguage }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?uri WHERE { ?uri dbo:Astronaut ?info . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:creator res:Family_Guy }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Mexico_City dbo:populationTotal ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri dbo:creator &lt;http://dbpedia.org/resource/Batman&gt; }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?number WHERE { ?uri dbo:capital &lt;http://dbpedia.org/resource/Australia&gt; . ?uri dbo:populationTotal ?number . }</t>
-  </si>
-  <si>
-    <t>SELECT ?val WHERE { &lt;http://dbpedia.org/resource/North_Rhine-Westphalia&gt; &lt;http://dbpedia.org/ontology/areaTotal&gt; ?val . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?emloyees) WHERE { ?uri dbo:numberOfEmployees &lt;http://dbpedia.org/resource/IBM&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; SELECT (xsd:float(?value) AS ?answer) WHERE { &lt;http://dbpedia.org/resource/Pulp_Fiction&gt; dbo:budget ?value . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?uri WHERE { ?uri dbo:starring res:Jesse_Eisenberg }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:country res:Denmark . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Himalayas dbo:country ?uri . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Country ; owl:sameAs &lt;http://dbpedia.org/class/yago/Country108546813&gt; ; dbo:areaTotal ?area } ORDER BY DESC(?area) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?almaMater WHERE { ?almaMater &lt;http://dbpedia.org/ontology/almaMater&gt; ?michigan . ?michigan dbo:chancellor &lt;http://dbpedia.org/resource/Angela_Merkel&gt; . }</t>
-  </si>
-  <si>
-    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Goofy&gt; dbo:creator ?uri }</t>
-  </si>
-  <si>
     <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { res:Penguin_Books dbo:founder ?uri }</t>
   </si>
   <si>
@@ -1283,84 +983,1054 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Resource treated as Ontology</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Missing rdf:type</t>
+  </si>
+  <si>
+    <t>Unadapted Dataset Patterns</t>
+  </si>
+  <si>
+    <t>Wrong Ontology</t>
+  </si>
+  <si>
+    <t>Error Category 2</t>
+  </si>
+  <si>
+    <t>Error Category 3</t>
+  </si>
+  <si>
+    <t>Error Category 4</t>
+  </si>
+  <si>
+    <t>Wrong Resource</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?founder WHERE { ?resource rdf:type dbo:Company ; dbo:founder ?founder . FILTER (REGEX(STR(?resource), 'Penguin_Books', 'i')) . FILTER (lang(?founder) = 'en') . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director &lt;http://dbpedia.org/resource/Stanley_Kubrick&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri a dbo:Musical . ?uri dbo:musicBy &lt;http://dbpedia.org/resource/Elton_John&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?uri WHERE { res:Skype dbo:developer ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:SoccerClub ; dbo:category ?category FILTER regex(?category, 'Bundesliga') }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?actor WHERE { ?movie dbo:director res:William_Shatner. ?movie rdf:type dbo:Film. ?movie dbo:actor ?actor. FILTER(!bound(?actor) || ?actor != res:William_Shatner) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Mountain ?uri dbo:elevation ?elevation }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"dbo:elevation\\": mismatched input \'dbo:elevation\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 191,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Mountain ?uri dbo:elevation ?elevation }",\n        "startIndex": 191,\n        "stopIndex": 203\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Mountain ?uri dbo:elevation ?elevation }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"dbo:elevation\\": mismatched input \'dbo:elevation\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 191,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Mountain ?uri dbo:elevation ?elevation }",\n        "startIndex": 525,\n        "stopIndex": 537\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Mountain ?uri dbo:elevation ?elevation }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri dbo:starring &lt;http://dbpedia.org/resource/Leonardo_DiCaprio&gt;. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns# SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; dbo:deathDate ?date }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXrdf:&lt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 98,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns# SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; dbo:deathDate ?date }",\n        "startIndex": 98,\n        "stopIndex": 98\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns# SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; dbo:deathDate ?date }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"&lt;\\": no viable alternative at input \'PREFIXrdf:&lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;PREFIXdbr:&lt;http://dbpedia.org/resource/&gt;PREFIXskos:&lt;http://www.w3.org/2004/02/skos/core#&gt;PREFIXyago:&lt;http://dbpedia.org/class/yago/&gt;PREFIXdbc:&lt;http://dbpedia.org/resource/Category:&gt;PREFIXdct:&lt;http://purl.org/dc/terms/&gt;PREFIXdbo:&lt;http://dbpedia.org/ontology/&gt;PREFIXdbp:&lt;http://dbpedia.org/property/&gt;PREFIXrdf:&lt;\'",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 98,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns# SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; dbo:deathDate ?date }",\n        "startIndex": 389,\n        "stopIndex": 389\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns# SELECT DISTINCT ?date WHERE { &lt;http://dbpedia.org/resource/Olof_Palme&gt; dbo:deathDate ?date }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:starring &lt;http://dbpedia.org/resource/Elizabeth_Taylor&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Richard_Burton&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { res:Minecraft dbo:developer ?uri ?uri dbo:Person | dbo:Developer | dbo:VideoGameDeveloper | dbo:VideoGameDesigner }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"?uri\\": mismatched input \'?uri\' expecting \'}\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 139,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { res:Minecraft dbo:developer ?uri ?uri dbo:Person | dbo:Developer | dbo:VideoGameDeveloper | dbo:VideoGameDesigner }",\n        "startIndex": 139,\n        "stopIndex": 142\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { res:Minecraft dbo:developer ?uri ?uri dbo:Person | dbo:Developer | dbo:VideoGameDeveloper | dbo:VideoGameDesigner }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"?uri\\": mismatched input \'?uri\' expecting \'}\'",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 139,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { res:Minecraft dbo:developer ?uri ?uri dbo:Person | dbo:Developer | dbo:VideoGameDeveloper | dbo:VideoGameDesigner }",\n        "startIndex": 473,\n        "stopIndex": 476\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { res:Minecraft dbo:developer ?uri ?uri dbo:Person | dbo:Developer | dbo:VideoGameDeveloper | dbo:VideoGameDesigner }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?val WHERE { res:The_Lego_Movie dbo:budget ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?label WHERE { ?album dbo:releaseDate "1954-03-23" . ?album dbo:recordLabel ?label . ?artist rdf:type dbo:Artist . ?artist dbo:artistName "Elvis Presley" . ?album dbo:artist ?artist . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Toy_Story&gt; &lt;http://dbpedia.org/ontology/runtime&gt; ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Occupation . ?uri dbo:instrument res:Trumpet . ?uri rdf:type res:Bandleader . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:director &lt;http://dbpedia.org/resource/Garry_Marshall&gt; . ?uri dbo:starring &lt;http://dbpedia.org/resource/Julia_Roberts&gt; . ?uri a dbo:Film . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?year WHERE { &lt;http://dbpedia.org/resource/Rachel_Stevens&gt; dbo:birthYear ?year . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?s dbo:deathCause ?uri } GROUP BY ?uri ORDER BY DESC(COUNT(DISTINCT ?s)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?num WHERE { res:Yokohama_Marine_Tower dbo:height ?num. }</t>
+  </si>
+  <si>
+    <t>PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbpedia: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbpedia:Mountain ; dbpedia:locatedInArea &lt;http://dbpedia.org/resource/Italy&gt; ; dbp:elevation ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:doctoralAdvisor res:Albert_Einstein . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/owner&gt; &lt;http://dbpedia.org/resource/Donald_Trump&gt; ; &lt;http://dbpedia.org/ontology/domain&gt; ?domain . FILTER regex(?domain, 'business') }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?o1 WHERE { res:Tom_Cruise dbo:spouse ?o1 }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?val) AS ?c) WHERE { ?uri dbo:populationTotal ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { &lt;http://dbpedia.org/resource/The_Interpretation_of_Dreams&gt; dbo:author ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?date WHERE { res:John_Adams dbo:birthDate ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?population WHERE { res:European_Union dbo:populationTotal ?population . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?o1 WHERE { &lt;http://dbpedia.org/resource/China&gt; dbo:currency ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/William_Shakespeare&gt; dbo:deathDate ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Rocket { ?uri dbo:launchSite &lt;http://dbpedia.org/resource/Baikonur_Cosmodrome&gt; }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Unexpected end of input: missing \'}\' at \'&lt;EOF&gt;\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 324,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Rocket { ?uri dbo:launchSite &lt;http://dbpedia.org/resource/Baikonur_Cosmodrome&gt; }",\n        "startIndex": 324,\n        "stopIndex": 323\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Rocket { ?uri dbo:launchSite &lt;http://dbpedia.org/resource/Baikonur_Cosmodrome&gt; }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Unexpected end of input: missing \'}\' at \'&lt;EOF&gt;\'",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 324,\n        "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Rocket { ?uri dbo:launchSite &lt;http://dbpedia.org/resource/Baikonur_Cosmodrome&gt; }",\n        "startIndex": 557,\n        "stopIndex": 556\n    },\n    "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri rdf:type dbo:Rocket { ?uri dbo:launchSite &lt;http://dbpedia.org/resource/Baikonur_Cosmodrome&gt; }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Island ; dbo:partOf res:Japan }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?developer WHERE { res:World_of_Warcraft dbo:developer ?developer }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Company ; dbo:industry res:Advertising . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?uri WHERE { &lt;http://dbpedia.org/resource/Angela_Merkel&gt; &lt;http://dbpedia.org/ontology/almaMater&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:starring &lt;http://dbpedia.org/resource/Neil_Patrick_Harris&gt; . ?uri a dbo:TelevisionShow . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:starring res:Tom_Cruise . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?mountEverest dbo:locatedInArea ?uri . ?uri a dbo:Country . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:John_F._Kennedy dbo:deathPlace ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:crosses &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Moscow&gt; . ?uri a &lt;http://dbpedia.org/ontology/Swimmer&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:starring res:Alec_Guinness ; dbo:releaseDate ?releaseDate . } ORDER BY DESC(?releaseDate) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?res WHERE { ?res dbo:mountain ?elevation . FILTER (?elevation &gt; 8848) } ORDER BY DESC(?elevation) LIMIT 1 OFFSET 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?val WHERE { ?uri dbo:populationTotal ?val . ?uri &lt;http://dbpedia.org/resource/Cairo&gt; . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 111,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:starring res:Tom_Cruise . }",\n        "startIndex": 111,\n        "stopIndex": 118\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:starring res:Tom_Cruise . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 7,\n        "positionInLine": 179,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?val WHERE { ?uri dbo:populationTotal ?val . ?uri &lt;http://dbpedia.org/resource/Cairo&gt; . }",\n        "startIndex": 470,\n        "stopIndex": 470\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?val WHERE { ?uri dbo:populationTotal ?val . ?uri &lt;http://dbpedia.org/resource/Cairo&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Person. ?uri dbo:birthPlace &lt;http://dbpedia.org/resource/Heraklion&gt;. }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri &lt;http://dbpedia.org/ontology/child&gt; &lt;http://dbpedia.org/resource/Benjamin_Franklin&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?elevationValue WHERE { &lt;http://dbpedia.org/resource/Düsseldorf_Airport&gt; dbo:elevation ?elevationValue . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?country WHERE { ?mecca a dbo:City . ?mecca dbo:country ?country . FILTER (strstarts(str(?mecca), 'http://dbpedia.org/resource/Mecca')). }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?val WHERE { res:Claudia_Schiffer dbo:height ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { res:The_Pillars_of_the_Earth dbo:author ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:genre res:Lou_Reed }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/birthPlace&gt; &lt;http://dbpedia.org/resource/Frank_Sinatra&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:City ; dbp:populationTotal ?population . } ORDER BY ?population LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:creator res:Walt_Disney . ?uri a dbo:TelevisionShow }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri dbo:Holiday ?holiday . ?holiday dbo:country &lt;http://dbpedia.org/resource/Sweden&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:netIncome ?income . FILTER regex(iri(?uri), 'Apple_Inc') }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": mismatched input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 179,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?val WHERE { ?uri dbo:populationTotal ?val . ?uri &lt;http://dbpedia.org/resource/Cairo&gt; . }",\n        "startIndex": 179,\n        "stopIndex": 179\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?val WHERE { ?uri dbo:populationTotal ?val . ?uri &lt;http://dbpedia.org/resource/Cairo&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: REGEX expressions are currently supported only on variables.",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 99,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:netIncome ?income . FILTER regex(iri(?uri), \'Apple_Inc\') }",\n        "startIndex": 433,\n        "stopIndex": 461\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:netIncome ?income . FILTER regex(iri(?uri), \'Apple_Inc\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Abraham_Lincoln dbo:deathPlace ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Himalayas dbo:country ?country . ?country dbo:capital ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Limerick_Lake&gt; &lt;http://www.wikidata.org/prop/direct/P17&gt; ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?val WHERE { &lt;http://dbpedia.org/resource/Michael_Jordan&gt; dbo:height ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:director res:Clint_Eastwood ; dbo:starring ?movie . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:currency res:West_African_CFA_franc }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?val WHERE { &lt;http://dbpedia.org/resource/Iraq&gt; dbo:populationTotal ?val }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbp:category ?category . FILTER (regex(?category, 'Holiday')) . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:PoliticalParty ; dbo:country res:Greece ; dbo:ideology res:Pro-Europeanism . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?date WHERE { ?actor dbo:starring &lt;http://dbpedia.org/resource/Charmed&gt; ; dbo:birthDate ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?movement WHERE { res:The_Three_Dancers dbo:author ?artist . ?artist dbo:movement ?movement . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:genre ?genre . ?genre dbp:country res:Germany . ?uri dbo:birthPlace ?place . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:architect &lt;http://dbpedia.org/resource/Brooklyn_Bridge&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri &lt;http://dbpedia.org/ontology/composer&gt; &lt;http://dbpedia.org/resource/Game_of_Thrones&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:director res:Francis_Ford_Coppola ; a dbo:Film . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?name WHERE { res:Adele dbo:birthName ?name }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?album dbo:artist ?artist . ?artist rdfs:label "Queen"@en . ?album dbo:releaseDate ?date . FILTER ( ?date = ( GROUP_CONCAT(?date) AS ?dates ) ) }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: REGEX expressions are currently supported only on variables.",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 99,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:netIncome ?income . FILTER regex(iri(?uri), \'Apple_Inc\') }",\n        "startIndex": 99,\n        "stopIndex": 127\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT ?uri WHERE { ?uri dbo:netIncome ?income . FILTER regex(iri(?uri), \'Apple_Inc\') }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"AS\\": mismatched input \'AS\' expecting \')\'",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 390,\n        "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?album dbo:artist ?artist . ?artist rdfs:label \\"Queen\\"@en . ?album dbo:releaseDate ?date . FILTER ( ?date = ( GROUP_CONCAT(?date) AS ?dates ) ) }",\n        "startIndex": 623,\n        "stopIndex": 624\n    },\n    "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?album dbo:artist ?artist . ?artist rdfs:label \\"Queen\\"@en . ?album dbo:releaseDate ?date . FILTER ( ?date = ( GROUP_CONCAT(?date) AS ?dates ) ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Czech_Republic dbo:currency ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri dbo:birthPlace &lt;http://dbpedia.org/resource/Vienna&gt; . ?uri dbo:deathPlace &lt;http://dbpedia.org/resource/Berlin&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Bridge . ?uri dbo:crosses ?crosses . ?crosses dbp:rivers ?rivers . FILTER (CONTAINS(STR(?rivers), 'Seine')) }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"AS\\": mismatched input \'AS\' expecting \')\'",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 390,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?album dbo:artist ?artist . ?artist rdfs:label \\"Queen\\"@en . ?album dbo:releaseDate ?date . FILTER ( ?date = ( GROUP_CONCAT(?date) AS ?dates ) ) }",\n        "startIndex": 390,\n        "stopIndex": 391\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?album dbo:artist ?artist . ?artist rdfs:label \\"Queen\\"@en . ?album dbo:releaseDate ?date . FILTER ( ?date = ( GROUP_CONCAT(?date) AS ?dates ) ) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 6,\n        "positionInLine": 232,\n        "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Bridge . ?uri dbo:crosses ?crosses . ?crosses dbp:rivers ?rivers . FILTER (CONTAINS(STR(?rivers), \'Seine\')) }",\n        "startIndex": 465,\n        "stopIndex": 465\n    },\n    "query": "PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Bridge . ?uri dbo:crosses ?crosses . ?crosses dbp:rivers ?rivers . FILTER (CONTAINS(STR(?rivers), \'Seine\')) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?musician (COUNT(DISTINCT ?book) AS ?bookCount) WHERE { ?musician dbo:occupation res:Musician . ?book dbo:author ?musician . } GROUP BY ?musician ORDER BY DESC(?bookCount) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:hasCreator res:John_Cleese . ?uri a dbo:TelevisionShow . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT ?uri WHERE { ?uri dbo:Writer ?award . ?award dbp:winner ?noble . FILTER(regex(str(?noble), "Nobel Prize in Literature")) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:discoverer &lt;http://dbpedia.org/resource/Ceres_(dwarf_planet)&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?res WHERE { ?res dbo:occupation &lt;http://dbpedia.org/resource/Bandleader&gt; . ?res dbo:instrument &lt;http://dbpedia.org/resource/Trumpet&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:BasketballPlayer . ?uri dbo:height ?height . FILTER(?height &gt; "2.00"^^xsd:float) }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\".\\": extraneous input \'.\' expecting {\'(\', \'[\', \'true\', \'false\', IRI_REF, PNAME_NS, PNAME_LN, BLANK_NODE_LABEL, VAR1, VAR2, PREFIX_LANGTAG, INTEGER, DECIMAL, DOUBLE, INTEGER_POSITIVE, DECIMAL_POSITIVE, DOUBLE_POSITIVE, INTEGER_NEGATIVE, DECIMAL_NEGATIVE, DOUBLE_NEGATIVE, STRING_LITERAL1, STRING_LITERAL2, STRING_LITERAL_LONG1, STRING_LITERAL_LONG2, NIL, ANON}",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 232,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Bridge . ?uri dbo:crosses ?crosses . ?crosses dbp:rivers ?rivers . FILTER (CONTAINS(STR(?rivers), \'Seine\')) }",\n        "startIndex": 232,\n        "stopIndex": 232\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:Bridge . ?uri dbo:crosses ?crosses . ?crosses dbp:rivers ?rivers . FILTER (CONTAINS(STR(?rivers), \'Seine\')) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix xsd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 153,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:BasketballPlayer . ?uri dbo:height ?height . FILTER(?height &gt; \\"2.00\\"^^xsd:float) }",\n        "startIndex": 487,\n        "stopIndex": 495\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:BasketballPlayer . ?uri dbo:height ?height . FILTER(?height &gt; \\"2.00\\"^^xsd:float) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?f1 dbo:starring res:Julia_Roberts . ?f2 dbo:starring res:Richard_Gere . FILTER(?f1 = ?f2) }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?o1 WHERE { &lt;http://dbpedia.org/resource/Canada&gt; dbo:capital ?o1 . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:SoccerPlayer ?birthPlace . ?birthPlace dbo:country res:Malta . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri dbo:capital &lt;http://dbpedia.org/resource/Cameroon&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?count) WHERE { ?uri a dbo:ProgrammingLanguage }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?uri WHERE { ?uri dbo:Astronaut ?info . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?uri WHERE { ?uri dbo:creator res:Family_Guy }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Mexico_City dbo:populationTotal ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt; SELECT ?uri WHERE { ?uri dbo:creator &lt;http://dbpedia.org/resource/Batman&gt; }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; SELECT DISTINCT ?number WHERE { ?uri dbo:capital &lt;http://dbpedia.org/resource/Australia&gt; . ?uri dbo:populationTotal ?number . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?val WHERE { &lt;http://dbpedia.org/resource/North_Rhine-Westphalia&gt; &lt;http://dbpedia.org/ontology/areaTotal&gt; ?val . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT (COUNT(DISTINCT ?uri) AS ?emloyees) WHERE { ?uri dbo:numberOfEmployees &lt;http://dbpedia.org/resource/IBM&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; SELECT (xsd:float(?value) AS ?answer) WHERE { &lt;http://dbpedia.org/resource/Pulp_Fiction&gt; dbo:budget ?value . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix xsd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 153,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:BasketballPlayer . ?uri dbo:height ?height . FILTER(?height &gt; \\"2.00\\"^^xsd:float) }",\n        "startIndex": 153,\n        "stopIndex": 161\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:BasketballPlayer . ?uri dbo:height ?height . FILTER(?height &gt; \\"2.00\\"^^xsd:float) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Not supported: Function \\"&lt;http://www.w3.org/2001/XMLSchema#float&gt;\\" is currently not supported by QLever.",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 99,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; SELECT (xsd:float(?value) AS ?answer) WHERE { &lt;http://dbpedia.org/resource/Pulp_Fiction&gt; dbo:budget ?value . }",\n        "startIndex": 99,\n        "stopIndex": 115\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; SELECT (xsd:float(?value) AS ?answer) WHERE { &lt;http://dbpedia.org/resource/Pulp_Fiction&gt; dbo:budget ?value . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix rdf was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 164,\n        "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:country res:Denmark . }",\n        "startIndex": 164,\n        "stopIndex": 171\n    },\n    "query": "PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:country res:Denmark . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>Structural Error</t>
-  </si>
-  <si>
-    <t>Resource treated as Ontology</t>
-  </si>
-  <si>
-    <t>Query Bad Formed</t>
-  </si>
-  <si>
-    <t>Missing rdf:type</t>
-  </si>
-  <si>
-    <t>Unadapted Dataset Patterns</t>
-  </si>
-  <si>
-    <t>Wrong Ontology</t>
+b'{\n    "exception": "Not supported: Function \\"&lt;http://www.w3.org/2001/XMLSchema#float&gt;\\" is currently not supported by QLever.",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 99,\n        "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; SELECT (xsd:float(?value) AS ?answer) WHERE { &lt;http://dbpedia.org/resource/Pulp_Fiction&gt; dbo:budget ?value . }",\n        "startIndex": 433,\n        "stopIndex": 449\n    },\n    "query": "PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\\nPREFIX dbr: &lt;http://dbpedia.org/resource/&gt;\\nPREFIX dbp: &lt;http://dbpedia.org/property/&gt;\\nPREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;\\nPREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;\\nPREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;\\nPREFIX dct: &lt;http://purl.org/dc/terms/&gt;\\nPREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt; SELECT (xsd:float(?value) AS ?answer) WHERE { &lt;http://dbpedia.org/resource/Pulp_Fiction&gt; dbo:budget ?value . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?uri WHERE { ?uri dbo:starring res:Jesse_Eisenberg }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT ?uri WHERE { ?uri rdf:type dbo:Film . ?uri dbo:country res:Denmark . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT DISTINCT ?uri WHERE { res:Himalayas dbo:country ?uri . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX dbp: &lt;http://dbpedia.org/property/&gt; PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri a dbo:Country ; owl:sameAs &lt;http://dbpedia.org/class/yago/Country108546813&gt; ; dbo:areaTotal ?area } ORDER BY DESC(?area) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; PREFIX res: &lt;http://dbpedia.org/resource/&gt; SELECT ?almaMater WHERE { ?almaMater &lt;http://dbpedia.org/ontology/almaMater&gt; ?michigan . ?michigan dbo:chancellor &lt;http://dbpedia.org/resource/Angela_Merkel&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX dbr: &lt;http://dbpedia.org/resource/&gt;
+PREFIX dbp: &lt;http://dbpedia.org/property/&gt;
+PREFIX skos: &lt;http://www.w3.org/2004/02/skos/core#&gt;
+PREFIX yago: &lt;http://dbpedia.org/class/yago/&gt;
+PREFIX dbc: &lt;http://dbpedia.org/resource/Category:&gt;
+PREFIX dct: &lt;http://purl.org/dc/terms/&gt;
+PREFIX dbo: &lt;http://dbpedia.org/ontology/&gt; SELECT DISTINCT ?uri WHERE { &lt;http://dbpedia.org/resource/Goofy&gt; dbo:creator ?uri }</t>
   </si>
 </sst>
 </file>
@@ -1419,12 +2089,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1729,15 +2398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,51 +2429,63 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
       <c r="E2" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F2" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>209</v>
       </c>
-      <c r="D3" t="s">
-        <v>309</v>
-      </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -1815,24 +2494,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
-        <v>310</v>
-      </c>
       <c r="E4" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -1841,24 +2520,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>211</v>
       </c>
-      <c r="D5" t="s">
-        <v>311</v>
-      </c>
       <c r="E5" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -1867,102 +2546,111 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
-        <v>212</v>
-      </c>
       <c r="D6" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+      <c r="I6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
-        <v>420</v>
+        <v>337</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1971,50 +2659,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>421</v>
+        <v>340</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
       <c r="D11" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -2023,50 +2714,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
       <c r="D12" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="F12" t="s">
-        <v>422</v>
+        <v>343</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I12" t="s">
+        <v>325</v>
+      </c>
+      <c r="J12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>344</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
       <c r="D13" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2075,50 +2772,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>345</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
-        <v>220</v>
-      </c>
       <c r="D14" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I14" t="s">
+        <v>329</v>
+      </c>
+      <c r="J14" t="s">
+        <v>325</v>
+      </c>
+      <c r="K14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="C15" t="s">
-        <v>221</v>
-      </c>
       <c r="D15" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="F15" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -2127,50 +2833,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F16" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
       <c r="D17" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="E17" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -2179,24 +2885,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" t="s">
-        <v>224</v>
-      </c>
       <c r="D18" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="F18" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2205,50 +2911,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" t="s">
-        <v>225</v>
-      </c>
       <c r="D19" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="E19" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="F19" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
-        <v>226</v>
-      </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="E20" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="F20" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2257,154 +2963,163 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>352</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
       <c r="D21" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E21" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="F21" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
       <c r="D22" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E22" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="F22" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
       <c r="D23" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E23" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="F23" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="F24" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C25" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="F25" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="I25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
       <c r="D26" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="F26" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -2413,24 +3128,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
       <c r="D27" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="E27" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="F27" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -2439,24 +3154,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
       <c r="D28" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="F28" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -2465,24 +3180,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
       <c r="D29" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="E29" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="F29" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2491,24 +3206,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
       <c r="D30" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="F30" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2517,76 +3232,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
-        <v>237</v>
-      </c>
       <c r="D31" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="F31" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I31" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>364</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
-        <v>238</v>
-      </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E32" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="F32" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>365</v>
+      </c>
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
       <c r="D33" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="E33" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="F33" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -2595,50 +3316,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
+        <v>366</v>
+      </c>
+      <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
-        <v>240</v>
-      </c>
       <c r="D34" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="E34" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="F34" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>241</v>
-      </c>
       <c r="D35" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="E35" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="F35" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -2647,24 +3368,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
       <c r="D36" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="E36" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -2673,76 +3394,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
-        <v>243</v>
-      </c>
       <c r="D37" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="E37" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="F37" t="s">
-        <v>424</v>
+        <v>319</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>244</v>
-      </c>
       <c r="D38" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="E38" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="F38" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+      <c r="I38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
       <c r="D39" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="E39" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="F39" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
@@ -2751,50 +3475,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>372</v>
+      </c>
+      <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
-        <v>246</v>
-      </c>
       <c r="D40" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E40" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="F40" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
+        <v>373</v>
+      </c>
+      <c r="C41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
-        <v>247</v>
-      </c>
       <c r="D41" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="E41" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="F41" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -2803,102 +3527,108 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
+        <v>374</v>
+      </c>
+      <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>248</v>
-      </c>
       <c r="D42" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="E42" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="F42" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
+        <v>375</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
       <c r="D43" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E43" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="F43" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
+        <v>376</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
-        <v>250</v>
-      </c>
       <c r="D44" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E44" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="F44" t="s">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I44" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
+        <v>378</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
-        <v>251</v>
-      </c>
       <c r="D45" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="E45" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="F45" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -2907,76 +3637,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
+        <v>379</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
-        <v>252</v>
-      </c>
       <c r="D46" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="F46" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
+        <v>380</v>
+      </c>
+      <c r="C47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
-        <v>253</v>
-      </c>
       <c r="D47" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="F47" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>381</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
-        <v>254</v>
-      </c>
       <c r="D48" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="E48" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -2985,24 +3715,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
+        <v>382</v>
+      </c>
+      <c r="C49" t="s">
         <v>155</v>
       </c>
-      <c r="C49" t="s">
-        <v>255</v>
-      </c>
       <c r="D49" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="E49" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="F49" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -3011,24 +3741,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
+        <v>383</v>
+      </c>
+      <c r="C50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" t="s">
-        <v>256</v>
-      </c>
       <c r="D50" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F50" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -3037,76 +3767,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
+        <v>384</v>
+      </c>
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="C51" t="s">
-        <v>257</v>
-      </c>
       <c r="D51" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="F51" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
+        <v>385</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
-        <v>258</v>
-      </c>
       <c r="D52" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E52" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="F52" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
+        <v>386</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
       </c>
-      <c r="C53" t="s">
-        <v>259</v>
-      </c>
       <c r="D53" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="E53" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -3115,24 +3845,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
+        <v>387</v>
+      </c>
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
-        <v>260</v>
-      </c>
       <c r="D54" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="E54" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="F54" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -3141,76 +3871,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
+        <v>388</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>261</v>
-      </c>
       <c r="D55" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E55" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="F55" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
+        <v>389</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" t="s">
-        <v>262</v>
-      </c>
       <c r="D56" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E56" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="F56" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I56" t="s">
+        <v>329</v>
+      </c>
+      <c r="J56" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
+        <v>391</v>
+      </c>
+      <c r="C57" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
-        <v>263</v>
-      </c>
       <c r="D57" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="E57" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="F57" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3219,24 +3955,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
+        <v>392</v>
+      </c>
+      <c r="C58" t="s">
         <v>164</v>
       </c>
-      <c r="C58" t="s">
-        <v>264</v>
-      </c>
       <c r="D58" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="E58" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="F58" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -3245,50 +3981,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
+        <v>393</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
       <c r="D59" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E59" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="F59" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
+        <v>394</v>
+      </c>
+      <c r="C60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" t="s">
-        <v>266</v>
-      </c>
       <c r="D60" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="E60" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="F60" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3297,50 +4033,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
+        <v>395</v>
+      </c>
+      <c r="C61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" t="s">
-        <v>267</v>
-      </c>
       <c r="D61" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="E61" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
+        <v>396</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="C62" t="s">
-        <v>268</v>
-      </c>
       <c r="D62" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="E62" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="F62" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
@@ -3349,24 +4085,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
+        <v>397</v>
+      </c>
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="C63" t="s">
-        <v>269</v>
-      </c>
       <c r="D63" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="E63" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="F63" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3375,50 +4111,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
+        <v>398</v>
+      </c>
+      <c r="C64" t="s">
         <v>170</v>
       </c>
-      <c r="C64" t="s">
-        <v>270</v>
-      </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="F64" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I64" t="s">
+        <v>325</v>
+      </c>
+      <c r="J64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
+        <v>399</v>
+      </c>
+      <c r="C65" t="s">
         <v>171</v>
       </c>
-      <c r="C65" t="s">
-        <v>271</v>
-      </c>
       <c r="D65" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="E65" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="F65" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
@@ -3427,50 +4169,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
+        <v>400</v>
+      </c>
+      <c r="C66" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
       <c r="D66" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E66" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="F66" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
+        <v>401</v>
+      </c>
+      <c r="C67" t="s">
         <v>173</v>
       </c>
-      <c r="C67" t="s">
-        <v>273</v>
-      </c>
       <c r="D67" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="E67" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F67" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
@@ -3479,102 +4221,102 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
+        <v>402</v>
+      </c>
+      <c r="C68" t="s">
         <v>174</v>
       </c>
-      <c r="C68" t="s">
-        <v>274</v>
-      </c>
       <c r="D68" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E68" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="F68" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
+        <v>403</v>
+      </c>
+      <c r="C69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="s">
-        <v>275</v>
-      </c>
       <c r="D69" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E69" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="F69" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
+        <v>404</v>
+      </c>
+      <c r="C70" t="s">
         <v>176</v>
       </c>
-      <c r="C70" t="s">
-        <v>276</v>
-      </c>
       <c r="D70" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F70" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
+        <v>405</v>
+      </c>
+      <c r="C71" t="s">
         <v>177</v>
       </c>
-      <c r="C71" t="s">
-        <v>277</v>
-      </c>
       <c r="D71" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="E71" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="F71" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -3583,24 +4325,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
+        <v>406</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
       </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
       <c r="D72" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="E72" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="F72" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -3609,50 +4351,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
+        <v>407</v>
+      </c>
+      <c r="C73" t="s">
         <v>179</v>
       </c>
-      <c r="C73" t="s">
-        <v>279</v>
-      </c>
       <c r="D73" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E73" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F73" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I73" t="s">
+        <v>329</v>
+      </c>
+      <c r="J73" t="s">
+        <v>325</v>
+      </c>
+      <c r="K73" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
+        <v>409</v>
+      </c>
+      <c r="C74" t="s">
         <v>180</v>
       </c>
-      <c r="C74" t="s">
-        <v>280</v>
-      </c>
       <c r="D74" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="E74" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="F74" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3661,24 +4412,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
+        <v>410</v>
+      </c>
+      <c r="C75" t="s">
         <v>181</v>
       </c>
-      <c r="C75" t="s">
-        <v>281</v>
-      </c>
       <c r="D75" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="E75" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="F75" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
@@ -3687,154 +4438,172 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
+        <v>411</v>
+      </c>
+      <c r="C76" t="s">
         <v>182</v>
       </c>
-      <c r="C76" t="s">
-        <v>282</v>
-      </c>
       <c r="D76" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E76" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="F76" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I76" t="s">
+        <v>329</v>
+      </c>
+      <c r="J76" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>413</v>
+      </c>
+      <c r="C77" t="s">
         <v>183</v>
       </c>
-      <c r="C77" t="s">
-        <v>283</v>
-      </c>
       <c r="D77" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="E77" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="F77" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I77" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
+        <v>414</v>
+      </c>
+      <c r="C78" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
-        <v>284</v>
-      </c>
       <c r="D78" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E78" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="F78" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I78" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
+        <v>415</v>
+      </c>
+      <c r="C79" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s">
-        <v>285</v>
-      </c>
       <c r="D79" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E79" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="F79" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="I79" t="s">
+        <v>325</v>
+      </c>
+      <c r="J79" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" t="s">
         <v>186</v>
       </c>
-      <c r="C80" t="s">
-        <v>286</v>
-      </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E80" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="F80" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
+        <v>417</v>
+      </c>
+      <c r="C81" t="s">
         <v>187</v>
       </c>
-      <c r="C81" t="s">
-        <v>287</v>
-      </c>
       <c r="D81" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="E81" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F81" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G81" t="b">
         <v>1</v>
@@ -3843,76 +4612,85 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
+        <v>418</v>
+      </c>
+      <c r="C82" t="s">
         <v>188</v>
       </c>
-      <c r="C82" t="s">
-        <v>288</v>
-      </c>
       <c r="D82" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="F82" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I82" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
+        <v>420</v>
+      </c>
+      <c r="C83" t="s">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
-        <v>289</v>
-      </c>
       <c r="D83" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E83" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="F83" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I83" t="s">
+        <v>325</v>
+      </c>
+      <c r="J83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
+        <v>421</v>
+      </c>
+      <c r="C84" t="s">
         <v>190</v>
       </c>
-      <c r="C84" t="s">
-        <v>290</v>
-      </c>
       <c r="D84" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="E84" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="F84" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -3921,76 +4699,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
+        <v>422</v>
+      </c>
+      <c r="C85" t="s">
         <v>191</v>
       </c>
-      <c r="C85" t="s">
-        <v>291</v>
-      </c>
       <c r="D85" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" t="s">
         <v>308</v>
       </c>
-      <c r="E85" t="s">
-        <v>408</v>
-      </c>
       <c r="F85" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I85" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
+        <v>423</v>
+      </c>
+      <c r="C86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>292</v>
-      </c>
       <c r="D86" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E86" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
       <c r="F86" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
+        <v>424</v>
+      </c>
+      <c r="C87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>293</v>
-      </c>
       <c r="D87" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="E87" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="F87" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -3999,76 +4780,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
+        <v>425</v>
+      </c>
+      <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="C88" t="s">
-        <v>294</v>
-      </c>
       <c r="D88" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E88" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="F88" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="I88" t="s">
+        <v>329</v>
+      </c>
+      <c r="J88" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
+        <v>426</v>
+      </c>
+      <c r="C89" t="s">
         <v>195</v>
       </c>
-      <c r="C89" t="s">
-        <v>295</v>
-      </c>
       <c r="D89" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E89" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="F89" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
+        <v>427</v>
+      </c>
+      <c r="C90" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
-        <v>296</v>
-      </c>
       <c r="D90" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="E90" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="F90" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G90" t="b">
         <v>1</v>
@@ -4077,76 +4864,76 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
+        <v>428</v>
+      </c>
+      <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
-        <v>297</v>
-      </c>
       <c r="D91" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="E91" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="F91" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
+        <v>429</v>
+      </c>
+      <c r="C92" t="s">
         <v>198</v>
       </c>
-      <c r="C92" t="s">
-        <v>298</v>
-      </c>
       <c r="D92" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E92" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="F92" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
+        <v>430</v>
+      </c>
+      <c r="C93" t="s">
         <v>199</v>
       </c>
-      <c r="C93" t="s">
-        <v>299</v>
-      </c>
       <c r="D93" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="E93" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="F93" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
@@ -4155,128 +4942,131 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
+        <v>431</v>
+      </c>
+      <c r="C94" t="s">
         <v>200</v>
       </c>
-      <c r="C94" t="s">
-        <v>300</v>
-      </c>
       <c r="D94" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E94" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
       <c r="F94" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
+        <v>432</v>
+      </c>
+      <c r="C95" t="s">
         <v>201</v>
       </c>
-      <c r="C95" t="s">
-        <v>301</v>
-      </c>
       <c r="D95" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="F95" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="I95" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
+        <v>434</v>
+      </c>
+      <c r="C96" t="s">
         <v>202</v>
       </c>
-      <c r="C96" t="s">
-        <v>302</v>
-      </c>
       <c r="D96" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="E96" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="F96" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
+        <v>435</v>
+      </c>
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
       <c r="D97" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="E97" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="F97" t="s">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
+        <v>436</v>
+      </c>
+      <c r="C98" t="s">
         <v>204</v>
       </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
       <c r="D98" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="E98" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="F98" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -4285,76 +5075,82 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
+        <v>437</v>
+      </c>
+      <c r="C99" t="s">
         <v>205</v>
       </c>
-      <c r="C99" t="s">
-        <v>305</v>
-      </c>
       <c r="D99" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E99" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
       <c r="F99" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+      <c r="I99" t="s">
+        <v>325</v>
+      </c>
+      <c r="J99" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
+        <v>438</v>
+      </c>
+      <c r="C100" t="s">
         <v>206</v>
       </c>
-      <c r="C100" t="s">
-        <v>306</v>
-      </c>
       <c r="D100" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E100" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="F100" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
+        <v>439</v>
+      </c>
+      <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="s">
-        <v>307</v>
-      </c>
       <c r="D101" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="E101" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="F101" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
